--- a/assets/producteur-import-exemple.xlsx
+++ b/assets/producteur-import-exemple.xlsx
@@ -1,26 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JULIO\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\ccbw\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A46868DD-CF89-43EF-BE74-A358E2925405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBB12A7B-AE4F-4A7D-ADC4-53E1C1AB726F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="import-liste-exemple" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>id</t>
   </si>
@@ -28,12 +44,21 @@
     <t>localites</t>
   </si>
   <si>
+    <t>codeproducteur</t>
+  </si>
+  <si>
     <t>nom</t>
   </si>
   <si>
     <t>prenoms</t>
   </si>
   <si>
+    <t>genre</t>
+  </si>
+  <si>
+    <t>datenaissance</t>
+  </si>
+  <si>
     <t>phone1</t>
   </si>
   <si>
@@ -46,59 +71,83 @@
     <t>statut</t>
   </si>
   <si>
-    <t>FIELD CO</t>
-  </si>
-  <si>
-    <t>DIVO001</t>
-  </si>
-  <si>
-    <t>KONE</t>
-  </si>
-  <si>
-    <t>MOUSTAPHA</t>
+    <t>anneecertification</t>
+  </si>
+  <si>
+    <t>certification</t>
+  </si>
+  <si>
+    <t>DIANKRO</t>
+  </si>
+  <si>
+    <t>RA-DI-001-S1</t>
+  </si>
+  <si>
+    <t>KOUAKOU</t>
+  </si>
+  <si>
+    <t>KOUAME ROLAND</t>
+  </si>
+  <si>
+    <t>Homme</t>
+  </si>
+  <si>
+    <t>oui</t>
+  </si>
+  <si>
+    <t>Certifie</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>CI009525998</t>
+  </si>
+  <si>
+    <t>Rainforest</t>
+  </si>
+  <si>
+    <t>RA-DI-008-S1</t>
+  </si>
+  <si>
+    <t>OUSSOU</t>
+  </si>
+  <si>
+    <t>N'DA AYA FLORENCE</t>
   </si>
   <si>
     <t>Femme</t>
   </si>
   <si>
-    <t>oui</t>
-  </si>
-  <si>
-    <t>Candidat</t>
-  </si>
-  <si>
-    <t>FC-A-001</t>
-  </si>
-  <si>
-    <t>SANSAN</t>
-  </si>
-  <si>
-    <t>Homme</t>
-  </si>
-  <si>
-    <t>genre</t>
-  </si>
-  <si>
-    <t>datenaissance</t>
-  </si>
-  <si>
-    <t>codeproducteur</t>
-  </si>
-  <si>
-    <t>anneecertification</t>
-  </si>
-  <si>
-    <t>Certifie</t>
-  </si>
-  <si>
-    <t>Kérébé</t>
+    <t>C0103557076</t>
+  </si>
+  <si>
+    <t>0554770115</t>
+  </si>
+  <si>
+    <t>0779646294</t>
+  </si>
+  <si>
+    <t>0758004710</t>
+  </si>
+  <si>
+    <t>0758563441</t>
+  </si>
+  <si>
+    <t>numpiece</t>
+  </si>
+  <si>
+    <t>programme</t>
+  </si>
+  <si>
+    <t>Bandama</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,8 +282,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -414,8 +469,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -530,6 +591,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -575,9 +651,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -623,9 +700,35 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -641,21 +744,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L3" totalsRowShown="0">
-  <autoFilter ref="A1:L3"/>
-  <tableColumns count="12">
-    <tableColumn id="1" name="id"/>
-    <tableColumn id="2" name="localites"/>
-    <tableColumn id="3" name="codeproducteur"/>
-    <tableColumn id="4" name="nom"/>
-    <tableColumn id="5" name="prenoms"/>
-    <tableColumn id="6" name="genre"/>
-    <tableColumn id="7" name="datenaissance" dataDxfId="0"/>
-    <tableColumn id="8" name="phone1"/>
-    <tableColumn id="9" name="phone2"/>
-    <tableColumn id="10" name="consentement"/>
-    <tableColumn id="11" name="statut"/>
-    <tableColumn id="12" name="anneecertification"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:O3" totalsRowShown="0">
+  <autoFilter ref="A1:O3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="localites"/>
+    <tableColumn id="15" xr3:uid="{75E48827-D138-45DE-9080-EEA2C16AF8B2}" name="programme"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="codeproducteur"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="nom"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="prenoms"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="genre" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="datenaissance" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="phone1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="phone2"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="consentement"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="statut"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="anneecertification"/>
+    <tableColumn id="13" xr3:uid="{B14715D2-95AE-4E2D-B3DA-6A69ED495A5C}" name="numpiece"/>
+    <tableColumn id="14" xr3:uid="{BDC9AD9B-6D03-494C-AFE8-17381107C558}" name="certification"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -957,25 +1063,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="9" width="9.85546875" customWidth="1"/>
-    <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="13" max="13" width="19.44140625" customWidth="1"/>
+    <col min="14" max="14" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -983,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -992,98 +1104,122 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1">
+        <v>34335</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L2" t="s">
         <v>19</v>
       </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
         <v>21</v>
       </c>
+      <c r="O2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1">
-        <v>44652</v>
-      </c>
-      <c r="H2">
-        <v>145528965</v>
-      </c>
-      <c r="I2">
-        <v>154852653</v>
-      </c>
-      <c r="J2" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="1">
-        <v>44640</v>
-      </c>
-      <c r="H3">
-        <v>102020405</v>
-      </c>
-      <c r="I3">
-        <v>607080910</v>
+        <v>25</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="1">
+        <v>25569</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" t="s">
         <v>22</v>
-      </c>
-      <c r="L3">
-        <v>2010</v>
       </c>
     </row>
   </sheetData>
